--- a/testpop - Copy.xlsx
+++ b/testpop - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CodeChep\autofillpop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE52FA7-A367-46EB-89FA-2F7120643F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C68F6F-04DC-4905-B73A-39552CCC4A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3D98458D-5974-4D18-9914-2207DFC74510}"/>
   </bookViews>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>20/11/1990</t>
-  </si>
-  <si>
-    <t>20/11/1991</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>077777777</t>
   </si>
@@ -490,7 +484,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,53 +497,53 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2">
+        <v>33197</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>2</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="B3" s="2">
+        <v>33562</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
